--- a/Каркас 2/Устройства.xlsx
+++ b/Каркас 2/Устройства.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98788357-F2D8-4CE5-82E3-3141A3F1082F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="705" yWindow="630" windowWidth="28095" windowHeight="14850" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Связь" sheetId="4" r:id="rId1"/>
@@ -14,12 +15,23 @@
     <sheet name="Routines" sheetId="2" r:id="rId5"/>
     <sheet name="Нагрузки" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="552">
   <si>
     <t xml:space="preserve">Частотный преобразователь </t>
   </si>
@@ -989,9 +1001,6 @@
     <t>Энкодер А</t>
   </si>
   <si>
-    <t>Авария - СВЕТ</t>
-  </si>
-  <si>
     <t>Авария - ЗВУК</t>
   </si>
   <si>
@@ -1002,9 +1011,6 @@
   </si>
   <si>
     <t>Звуковой сигнализатор</t>
-  </si>
-  <si>
-    <t>Световой сигнализатор</t>
   </si>
   <si>
     <t>AVAR_SVET</t>
@@ -1740,12 +1746,24 @@
   <si>
     <t>(старший байт)</t>
   </si>
+  <si>
+    <t>Свет красный</t>
+  </si>
+  <si>
+    <t>Свет зелёный</t>
+  </si>
+  <si>
+    <t>Сообщение - СВЕТ зелёный</t>
+  </si>
+  <si>
+    <t>Авария - СВЕТ красный</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2065,6 +2083,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2111,7 +2137,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2143,9 +2169,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2177,6 +2221,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2352,14 +2414,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
@@ -2367,12 +2429,12 @@
     <col min="9" max="9" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>125</v>
       </c>
@@ -2380,7 +2442,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>120</v>
       </c>
@@ -2388,7 +2450,7 @@
         <v>115200</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>121</v>
       </c>
@@ -2396,7 +2458,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>123</v>
       </c>
@@ -2404,7 +2466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>124</v>
       </c>
@@ -2412,7 +2474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>127</v>
       </c>
@@ -2420,7 +2482,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>128</v>
       </c>
@@ -2428,7 +2490,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>129</v>
       </c>
@@ -2448,7 +2510,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>130</v>
       </c>
@@ -2468,7 +2530,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>131</v>
       </c>
@@ -2484,7 +2546,7 @@
       </c>
       <c r="I18" s="55"/>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>132</v>
       </c>
@@ -2504,7 +2566,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>133</v>
       </c>
@@ -2524,7 +2586,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>134</v>
       </c>
@@ -2540,7 +2602,7 @@
       </c>
       <c r="I21" s="55"/>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>135</v>
       </c>
@@ -2556,7 +2618,7 @@
       </c>
       <c r="I22" s="55"/>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>136</v>
       </c>
@@ -2572,7 +2634,7 @@
       </c>
       <c r="I23" s="55"/>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>137</v>
       </c>
@@ -2589,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>138</v>
       </c>
@@ -2606,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>139</v>
       </c>
@@ -2623,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>140</v>
       </c>
@@ -2631,7 +2693,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>157</v>
       </c>
@@ -2651,7 +2713,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>158</v>
       </c>
@@ -2671,14 +2733,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:H18"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
@@ -2688,9 +2750,9 @@
     <col min="8" max="8" width="65.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" ht="45">
+    <row r="4" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
@@ -2709,12 +2771,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="75">
+    <row r="5" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B5" s="34">
         <v>1</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -2732,12 +2794,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="60">
+    <row r="6" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B6" s="34">
         <v>2</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>1</v>
@@ -2752,15 +2814,15 @@
         <v>3</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="85.5" customHeight="1">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="34">
         <v>2</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>2</v>
@@ -2775,12 +2837,12 @@
         <v>4</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="61.5" customHeight="1">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="2" t="s">
@@ -2797,12 +2859,12 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="2:8" ht="120">
+    <row r="9" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B9" s="59">
         <v>1</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>98</v>
@@ -2820,7 +2882,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="117.75" customHeight="1">
+    <row r="10" spans="2:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="60"/>
       <c r="C10" s="57"/>
       <c r="D10" s="3" t="s">
@@ -2839,7 +2901,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="103.5" customHeight="1">
+    <row r="11" spans="2:8" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="60"/>
       <c r="C11" s="57"/>
       <c r="D11" s="3" t="s">
@@ -2858,7 +2920,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="111.75" customHeight="1">
+    <row r="12" spans="2:8" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="61"/>
       <c r="C12" s="58"/>
       <c r="D12" s="3" t="s">
@@ -2877,12 +2939,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="90">
+    <row r="13" spans="2:8" ht="90" x14ac:dyDescent="0.25">
       <c r="B13" s="34">
         <v>3</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -2900,9 +2962,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="30">
+    <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="36" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="2" t="s">
@@ -2921,30 +2983,30 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="60">
+    <row r="15" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" s="41">
         <v>3</v>
       </c>
       <c r="C15" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>421</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>423</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>424</v>
-      </c>
       <c r="H15" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="2"/>
@@ -2953,7 +3015,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="2"/>
@@ -2962,7 +3024,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="2"/>
@@ -2982,14 +3044,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="38.28515625" customWidth="1"/>
@@ -3000,12 +3062,12 @@
     <col min="9" max="9" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="45">
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -3034,7 +3096,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>1</v>
       </c>
@@ -3059,7 +3121,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2</v>
       </c>
@@ -3076,10 +3138,10 @@
         <v>180</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>533</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>535</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>182</v>
@@ -3088,7 +3150,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>3</v>
       </c>
@@ -3099,25 +3161,25 @@
         <v>39</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>181</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>4</v>
       </c>
@@ -3144,7 +3206,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>5</v>
       </c>
@@ -3164,7 +3226,7 @@
         <v>284</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>283</v>
@@ -3173,7 +3235,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>6</v>
       </c>
@@ -3202,7 +3264,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>7</v>
       </c>
@@ -3229,7 +3291,7 @@
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>8</v>
       </c>
@@ -3240,40 +3302,40 @@
         <v>44</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>49</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G15" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>540</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>542</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>1</v>
       </c>
@@ -3302,7 +3364,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>2</v>
       </c>
@@ -3329,7 +3391,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>3</v>
       </c>
@@ -3358,7 +3420,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>4</v>
       </c>
@@ -3385,7 +3447,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
@@ -3396,7 +3458,7 @@
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" t="s">
@@ -3409,7 +3471,7 @@
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="D27" s="18"/>
@@ -3419,7 +3481,7 @@
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>7</v>
       </c>
@@ -3444,7 +3506,7 @@
       </c>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>8</v>
       </c>
@@ -3471,7 +3533,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="17"/>
@@ -3482,12 +3544,12 @@
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>30</v>
       </c>
@@ -3514,7 +3576,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -3525,7 +3587,7 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>1</v>
       </c>
@@ -3539,7 +3601,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>2</v>
       </c>
@@ -3554,26 +3616,28 @@
       </c>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>3</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>36</v>
+      <c r="B38" s="10">
+        <v>43</v>
       </c>
       <c r="C38" s="22" t="s">
         <v>84</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>305</v>
+        <v>550</v>
       </c>
       <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
+      <c r="F38" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="G38" s="5"/>
       <c r="H38" s="22"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>4</v>
       </c>
@@ -3584,21 +3648,21 @@
         <v>85</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>308</v>
+        <v>551</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>313</v>
+        <v>548</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="25">
         <v>6</v>
       </c>
@@ -3609,21 +3673,21 @@
         <v>171</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E40" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>312</v>
-      </c>
       <c r="G40" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="25">
         <v>7</v>
       </c>
@@ -3650,12 +3714,12 @@
       </c>
       <c r="I41" s="5"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>30</v>
       </c>
@@ -3682,7 +3746,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -3693,7 +3757,7 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>1</v>
       </c>
@@ -3720,7 +3784,7 @@
       </c>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>1</v>
       </c>
@@ -3747,7 +3811,7 @@
       </c>
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>1</v>
       </c>
@@ -3774,7 +3838,7 @@
       </c>
       <c r="I50" s="5"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>1</v>
       </c>
@@ -3812,14 +3876,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C4:N93"/>
   <sheetViews>
     <sheetView topLeftCell="C52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="7.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
@@ -3834,28 +3898,28 @@
     <col min="14" max="14" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:14" ht="28.5">
+    <row r="4" spans="3:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="E4" s="26" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="3:14" ht="28.5">
+    <row r="5" spans="3:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="E5" s="26"/>
     </row>
-    <row r="6" spans="3:14">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="F6" s="47" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K6" s="47" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="8" spans="3:14">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" s="45" t="s">
         <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E8" s="63" t="s">
         <v>222</v>
@@ -3872,7 +3936,7 @@
       </c>
       <c r="L8" s="63"/>
     </row>
-    <row r="9" spans="3:14">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" s="40" t="s">
         <v>224</v>
       </c>
@@ -3887,7 +3951,7 @@
         <v>183</v>
       </c>
       <c r="H9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I9" s="40" t="s">
         <v>244</v>
@@ -3906,7 +3970,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="3:14">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10" s="40" t="s">
         <v>234</v>
       </c>
@@ -3921,7 +3985,7 @@
         <v>184</v>
       </c>
       <c r="H10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I10" s="40" t="s">
         <v>245</v>
@@ -3940,7 +4004,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="3:14">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" s="40" t="s">
         <v>235</v>
       </c>
@@ -3955,7 +4019,7 @@
         <v>185</v>
       </c>
       <c r="H11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I11" s="40" t="s">
         <v>246</v>
@@ -3974,7 +4038,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="3:14">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C12" s="40" t="s">
         <v>236</v>
       </c>
@@ -3989,7 +4053,7 @@
         <v>186</v>
       </c>
       <c r="H12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I12" s="40" t="s">
         <v>247</v>
@@ -4008,7 +4072,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="3:14">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C13" s="40" t="s">
         <v>237</v>
       </c>
@@ -4023,7 +4087,7 @@
         <v>187</v>
       </c>
       <c r="H13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I13" s="40" t="s">
         <v>248</v>
@@ -4042,7 +4106,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="3:14">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C14" s="40" t="s">
         <v>238</v>
       </c>
@@ -4057,7 +4121,7 @@
         <v>188</v>
       </c>
       <c r="H14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I14" s="40" t="s">
         <v>249</v>
@@ -4076,7 +4140,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="3:14">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C15" s="40" t="s">
         <v>239</v>
       </c>
@@ -4091,7 +4155,7 @@
         <v>189</v>
       </c>
       <c r="H15" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I15" s="40" t="s">
         <v>250</v>
@@ -4110,7 +4174,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="3:14">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C16" s="40" t="s">
         <v>240</v>
       </c>
@@ -4125,7 +4189,7 @@
         <v>190</v>
       </c>
       <c r="H16" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I16" s="40" t="s">
         <v>251</v>
@@ -4144,7 +4208,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" s="40" t="s">
         <v>241</v>
       </c>
@@ -4159,7 +4223,7 @@
         <v>191</v>
       </c>
       <c r="H17" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I17" s="40" t="s">
         <v>252</v>
@@ -4174,10 +4238,10 @@
         <v>210</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" s="40" t="s">
         <v>242</v>
       </c>
@@ -4191,7 +4255,7 @@
         <v>192</v>
       </c>
       <c r="H18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I18" s="40" t="s">
         <v>253</v>
@@ -4206,234 +4270,234 @@
         <v>211</v>
       </c>
       <c r="N18" s="27" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D19" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="H19" t="s">
+        <v>343</v>
+      </c>
+      <c r="J19" s="44" t="s">
+        <v>376</v>
+      </c>
+      <c r="N19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="H20" t="s">
+        <v>344</v>
+      </c>
+      <c r="J20" s="44" t="s">
+        <v>377</v>
+      </c>
+      <c r="N20" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D21" s="40" t="s">
         <v>352</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H21" t="s">
         <v>345</v>
       </c>
-      <c r="J19" s="44" t="s">
+      <c r="J21" s="44" t="s">
         <v>378</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N21" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="20" spans="3:14">
-      <c r="D20" s="40" t="s">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D22" s="40" t="s">
         <v>353</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H22" t="s">
         <v>346</v>
       </c>
-      <c r="J20" s="44" t="s">
+      <c r="J22" s="44" t="s">
         <v>379</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N22" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="21" spans="3:14">
-      <c r="D21" s="40" t="s">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D23" s="40" t="s">
         <v>354</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H23" t="s">
         <v>347</v>
       </c>
-      <c r="J21" s="44" t="s">
+      <c r="J23" s="44" t="s">
         <v>380</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N23" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="22" spans="3:14">
-      <c r="D22" s="40" t="s">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D24" s="40" t="s">
         <v>355</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H24" t="s">
         <v>348</v>
       </c>
-      <c r="J22" s="44" t="s">
+      <c r="J24" s="44" t="s">
         <v>381</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N24" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="23" spans="3:14">
-      <c r="D23" s="40" t="s">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D25" s="40" t="s">
         <v>356</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H25" t="s">
         <v>349</v>
       </c>
-      <c r="J23" s="44" t="s">
+      <c r="J25" s="44" t="s">
         <v>382</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N25" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="24" spans="3:14">
-      <c r="D24" s="40" t="s">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D26" s="40" t="s">
         <v>357</v>
-      </c>
-      <c r="H24" t="s">
-        <v>350</v>
-      </c>
-      <c r="J24" s="44" t="s">
-        <v>383</v>
-      </c>
-      <c r="N24" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14">
-      <c r="D25" s="40" t="s">
-        <v>358</v>
-      </c>
-      <c r="H25" t="s">
-        <v>351</v>
-      </c>
-      <c r="J25" s="44" t="s">
-        <v>384</v>
-      </c>
-      <c r="N25" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="26" spans="3:14">
-      <c r="D26" s="40" t="s">
-        <v>359</v>
       </c>
       <c r="H26" t="s">
         <v>305</v>
       </c>
       <c r="J26" s="44" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="N26" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="27" spans="3:14">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D27" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="H27" t="s">
+        <v>358</v>
+      </c>
+      <c r="J27" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="N27" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D28" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="H28" t="s">
+        <v>359</v>
+      </c>
+      <c r="J28" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="N28" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D29" s="40" t="s">
         <v>394</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H29" t="s">
         <v>360</v>
       </c>
-      <c r="J27" s="44" t="s">
+      <c r="J29" s="44" t="s">
         <v>386</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N29" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="28" spans="3:14">
-      <c r="D28" s="40" t="s">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D30" s="40" t="s">
         <v>395</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H30" t="s">
         <v>361</v>
       </c>
-      <c r="J28" s="44" t="s">
+      <c r="J30" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N30" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="29" spans="3:14">
-      <c r="D29" s="40" t="s">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D31" s="40" t="s">
         <v>396</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H31" t="s">
         <v>362</v>
       </c>
-      <c r="J29" s="44" t="s">
+      <c r="J31" s="44" t="s">
         <v>388</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N31" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="30" spans="3:14">
-      <c r="D30" s="40" t="s">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D32" s="40" t="s">
         <v>397</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H32" t="s">
         <v>363</v>
       </c>
-      <c r="J30" s="44" t="s">
+      <c r="J32" s="44" t="s">
         <v>389</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N32" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="31" spans="3:14">
-      <c r="D31" s="40" t="s">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D33" s="40" t="s">
         <v>398</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H33" t="s">
         <v>364</v>
       </c>
-      <c r="J31" s="44" t="s">
+      <c r="J33" s="44" t="s">
         <v>390</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N33" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="32" spans="3:14">
-      <c r="D32" s="40" t="s">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D34" s="40" t="s">
         <v>399</v>
-      </c>
-      <c r="H32" t="s">
-        <v>365</v>
-      </c>
-      <c r="J32" s="44" t="s">
-        <v>391</v>
-      </c>
-      <c r="N32" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="33" spans="3:14">
-      <c r="D33" s="40" t="s">
-        <v>400</v>
-      </c>
-      <c r="H33" t="s">
-        <v>366</v>
-      </c>
-      <c r="J33" s="44" t="s">
-        <v>392</v>
-      </c>
-      <c r="N33" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="34" spans="3:14">
-      <c r="D34" s="40" t="s">
-        <v>401</v>
       </c>
       <c r="H34" t="s">
         <v>305</v>
       </c>
       <c r="J34" s="44" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="N34" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="35" spans="3:14">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C35" s="40" t="s">
         <v>243</v>
       </c>
@@ -4450,93 +4514,93 @@
         <v>212</v>
       </c>
       <c r="I35" s="44" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K35" s="44" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L35" s="44">
         <v>4122</v>
       </c>
       <c r="M35" s="44" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N35" s="27" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="36" spans="3:14">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D36" s="40" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G36" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H36" t="s">
         <v>213</v>
       </c>
       <c r="J36" s="44" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M36" s="48" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="N36" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="37" spans="3:14">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D37" s="40" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G37" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H37" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="J37" s="44" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M37" s="40" t="s">
         <v>67</v>
       </c>
       <c r="N37" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="38" spans="3:14">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D38" s="40" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G38" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H38" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J38" s="44" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M38" s="40" t="s">
         <v>176</v>
       </c>
       <c r="N38" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="39" spans="3:14">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D39" s="40" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G39" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H39" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="J39" s="44" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M39" s="40" t="s">
         <v>63</v>
@@ -4545,18 +4609,18 @@
         <v>214</v>
       </c>
     </row>
-    <row r="40" spans="3:14">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D40" s="40" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G40" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H40" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J40" s="44" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="M40" s="40" t="s">
         <v>64</v>
@@ -4565,18 +4629,18 @@
         <v>215</v>
       </c>
     </row>
-    <row r="41" spans="3:14">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D41" s="40" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G41" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H41" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J41" s="44" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M41" s="40" t="s">
         <v>53</v>
@@ -4585,38 +4649,38 @@
         <v>216</v>
       </c>
     </row>
-    <row r="42" spans="3:14">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D42" s="40" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G42" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H42" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J42" s="44" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M42" s="48" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="N42" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="43" spans="3:14">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D43" s="40" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G43" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H43" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="J43" s="44" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="M43" s="40" t="s">
         <v>47</v>
@@ -4625,15 +4689,15 @@
         <v>217</v>
       </c>
     </row>
-    <row r="44" spans="3:14">
+    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D44" s="40" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H44" t="s">
         <v>305</v>
       </c>
       <c r="J44" s="44" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M44" s="40" t="s">
         <v>48</v>
@@ -4642,15 +4706,15 @@
         <v>218</v>
       </c>
     </row>
-    <row r="45" spans="3:14">
+    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D45" s="40" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H45" t="s">
         <v>305</v>
       </c>
       <c r="J45" s="44" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M45" s="40" t="s">
         <v>78</v>
@@ -4659,15 +4723,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="3:14">
+    <row r="46" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D46" s="40" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H46" t="s">
         <v>305</v>
       </c>
       <c r="J46" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="M46" s="40" t="s">
         <v>173</v>
@@ -4676,15 +4740,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="3:14">
+    <row r="47" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D47" s="40" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H47" t="s">
         <v>305</v>
       </c>
       <c r="J47" s="44" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M47" s="40" t="s">
         <v>88</v>
@@ -4693,15 +4757,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="3:14">
+    <row r="48" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D48" s="40" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H48" t="s">
         <v>305</v>
       </c>
       <c r="J48" s="44" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M48" s="40" t="s">
         <v>91</v>
@@ -4710,15 +4774,15 @@
         <v>219</v>
       </c>
     </row>
-    <row r="49" spans="3:14">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D49" s="40" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H49" t="s">
         <v>305</v>
       </c>
       <c r="J49" s="44" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="M49" s="40" t="s">
         <v>220</v>
@@ -4727,60 +4791,60 @@
         <v>221</v>
       </c>
     </row>
-    <row r="50" spans="3:14">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D50" s="40" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H50" t="s">
         <v>305</v>
       </c>
       <c r="J50" s="44" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="M50" s="49" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="N50" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="51" spans="3:14">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D51" s="40" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H51" t="s">
         <v>305</v>
       </c>
       <c r="J51" s="44" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N51" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="54" spans="3:14">
+    <row r="54" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="I54" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="56" spans="3:14">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E56" s="46" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F56" s="46">
         <v>4107</v>
       </c>
       <c r="G56" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H56" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I56" s="45" t="s">
         <v>252</v>
@@ -4789,371 +4853,371 @@
         <v>210</v>
       </c>
     </row>
-    <row r="57" spans="3:14">
+    <row r="57" spans="3:14" x14ac:dyDescent="0.25">
       <c r="J57" s="52" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="K57" s="53"/>
       <c r="L57" s="54" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M57" s="53"/>
       <c r="N57" s="53" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J58" s="52" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K58" s="53"/>
       <c r="L58" s="53" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="M58" s="53"/>
       <c r="N58" s="53" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.25">
       <c r="J59" s="52" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="K59" s="53"/>
       <c r="L59" s="53"/>
       <c r="M59" s="53"/>
       <c r="N59" s="53" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.25">
       <c r="J60" s="52" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K60" s="53"/>
       <c r="L60" s="53"/>
       <c r="M60" s="53"/>
       <c r="N60" s="53" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.25">
       <c r="J61" s="52" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K61" s="53"/>
       <c r="L61" s="53"/>
       <c r="M61" s="53"/>
       <c r="N61" s="53" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="62" spans="3:14">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.25">
       <c r="J62" s="52" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K62" s="53"/>
       <c r="L62" s="53"/>
       <c r="M62" s="53"/>
       <c r="N62" s="53" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="63" spans="3:14">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.25">
       <c r="J63" s="52" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K63" s="53"/>
       <c r="L63" s="53"/>
       <c r="M63" s="53"/>
       <c r="N63" s="53" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="64" spans="3:14">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.25">
       <c r="J64" s="52" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K64" s="53"/>
       <c r="L64" s="53"/>
       <c r="M64" s="53"/>
       <c r="N64" s="53"/>
     </row>
-    <row r="65" spans="9:14">
+    <row r="65" spans="9:14" x14ac:dyDescent="0.25">
       <c r="J65" s="50" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K65" s="51"/>
       <c r="L65" s="51" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="M65" s="51"/>
       <c r="N65" s="51" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="66" spans="9:14">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="66" spans="9:14" x14ac:dyDescent="0.25">
       <c r="J66" s="50" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K66" s="51"/>
       <c r="L66" s="51" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="M66" s="51"/>
       <c r="N66" s="51" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="67" spans="9:14">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="67" spans="9:14" x14ac:dyDescent="0.25">
       <c r="J67" s="50" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K67" s="51"/>
       <c r="L67" s="51"/>
       <c r="M67" s="51"/>
       <c r="N67" s="51" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="68" spans="9:14">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="68" spans="9:14" x14ac:dyDescent="0.25">
       <c r="J68" s="50" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K68" s="51"/>
       <c r="L68" s="51"/>
       <c r="M68" s="51"/>
       <c r="N68" s="51"/>
     </row>
-    <row r="69" spans="9:14">
+    <row r="69" spans="9:14" x14ac:dyDescent="0.25">
       <c r="J69" s="50" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="K69" s="51"/>
       <c r="L69" s="51"/>
       <c r="M69" s="51"/>
       <c r="N69" s="51"/>
     </row>
-    <row r="70" spans="9:14">
+    <row r="70" spans="9:14" x14ac:dyDescent="0.25">
       <c r="J70" s="50" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="K70" s="51"/>
       <c r="L70" s="51"/>
       <c r="M70" s="51"/>
       <c r="N70" s="51"/>
     </row>
-    <row r="71" spans="9:14">
+    <row r="71" spans="9:14" x14ac:dyDescent="0.25">
       <c r="J71" s="50" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K71" s="51"/>
       <c r="L71" s="51"/>
       <c r="M71" s="51"/>
       <c r="N71" s="51"/>
     </row>
-    <row r="72" spans="9:14">
+    <row r="72" spans="9:14" x14ac:dyDescent="0.25">
       <c r="J72" s="50" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="K72" s="50"/>
       <c r="L72" s="51"/>
       <c r="M72" s="51"/>
       <c r="N72" s="51"/>
     </row>
-    <row r="73" spans="9:14">
+    <row r="73" spans="9:14" x14ac:dyDescent="0.25">
       <c r="J73" s="46"/>
       <c r="K73" s="46"/>
     </row>
-    <row r="74" spans="9:14">
+    <row r="74" spans="9:14" x14ac:dyDescent="0.25">
       <c r="J74" s="46"/>
       <c r="K74" s="46"/>
     </row>
-    <row r="75" spans="9:14">
+    <row r="75" spans="9:14" x14ac:dyDescent="0.25">
       <c r="J75" s="46"/>
       <c r="K75" s="46"/>
     </row>
-    <row r="76" spans="9:14">
+    <row r="76" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I76" s="46" t="s">
+        <v>479</v>
+      </c>
+      <c r="K76" s="46" t="s">
         <v>481</v>
-      </c>
-      <c r="K76" s="46" t="s">
-        <v>483</v>
       </c>
       <c r="L76">
         <v>4128</v>
       </c>
       <c r="M76" s="46" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N76" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="77" spans="9:14">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="77" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I77" s="46" t="s">
+        <v>480</v>
+      </c>
+      <c r="K77" s="46" t="s">
         <v>482</v>
-      </c>
-      <c r="K77" s="46" t="s">
-        <v>484</v>
       </c>
       <c r="L77">
         <v>4129</v>
       </c>
       <c r="M77" s="46" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N77" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="78" spans="9:14">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="78" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I78" s="46" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="K78" s="46" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L78">
         <v>4130</v>
       </c>
       <c r="M78" s="46" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="N78" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="79" spans="9:14">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="79" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I79" s="46" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K79" s="46" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L79">
         <v>4131</v>
       </c>
       <c r="M79" s="46" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="N79" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="80" spans="9:14">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="80" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I80" s="46" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="K80" s="46" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="L80">
         <v>4132</v>
       </c>
       <c r="M80" s="46" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="N80" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="81" spans="9:14">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="81" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I81" s="46" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="K81" s="46" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="L81">
         <v>4133</v>
       </c>
       <c r="M81" s="46" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="N81" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="82" spans="9:14">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="82" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I82" s="46" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="K82" s="46" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="L82">
         <v>4134</v>
       </c>
       <c r="M82" s="46" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="N82" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="83" spans="9:14">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="83" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I83" s="46" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K83" s="46" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L83">
         <v>4135</v>
       </c>
       <c r="M83" s="46" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="N83" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="84" spans="9:14">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="84" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I84" s="46" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K84" s="46" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L84">
         <v>4136</v>
       </c>
       <c r="M84" s="46" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="N84" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="85" spans="9:14">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="85" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I85" s="46"/>
     </row>
-    <row r="86" spans="9:14">
+    <row r="86" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I86" s="46"/>
     </row>
-    <row r="87" spans="9:14">
+    <row r="87" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I87" s="46"/>
     </row>
-    <row r="88" spans="9:14">
+    <row r="88" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I88" s="46"/>
     </row>
-    <row r="89" spans="9:14">
+    <row r="89" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I89" s="46"/>
     </row>
-    <row r="90" spans="9:14">
+    <row r="90" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I90" s="46"/>
     </row>
-    <row r="91" spans="9:14">
+    <row r="91" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I91" s="46"/>
     </row>
-    <row r="92" spans="9:14">
+    <row r="92" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I92" s="46"/>
     </row>
-    <row r="93" spans="9:14">
+    <row r="93" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I93" s="46"/>
     </row>
   </sheetData>
@@ -5167,49 +5231,49 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="78.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="30">
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -5221,14 +5285,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B3:I38"/>
   <sheetViews>
     <sheetView topLeftCell="B11" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="37.42578125" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
@@ -5239,12 +5303,12 @@
     <col min="9" max="9" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
         <v>34</v>
@@ -5263,7 +5327,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="10">
         <v>1</v>
       </c>
@@ -5283,7 +5347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="10">
         <v>2</v>
       </c>
@@ -5303,7 +5367,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
         <v>3</v>
       </c>
@@ -5323,7 +5387,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
         <v>4</v>
       </c>
@@ -5343,7 +5407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="5" t="s">
         <v>282</v>
@@ -5361,7 +5425,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
       <c r="C11" s="5" t="s">
         <v>110</v>
@@ -5379,7 +5443,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
         <v>5</v>
       </c>
@@ -5399,7 +5463,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
         <v>6</v>
       </c>
@@ -5419,7 +5483,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
         <v>7</v>
       </c>
@@ -5439,7 +5503,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -5448,7 +5512,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
       <c r="C16" s="5" t="s">
         <v>277</v>
@@ -5461,7 +5525,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="29"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
@@ -5470,56 +5534,56 @@
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="28"/>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="28"/>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="27" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="28"/>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="28"/>
       <c r="C22" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D22" t="s">
+        <v>316</v>
+      </c>
+      <c r="E22" t="s">
+        <v>317</v>
+      </c>
+      <c r="F22" t="s">
         <v>318</v>
       </c>
-      <c r="E22" t="s">
-        <v>319</v>
-      </c>
-      <c r="F22" t="s">
-        <v>320</v>
-      </c>
       <c r="G22" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>341</v>
-      </c>
       <c r="I22" s="7" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="31"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="2:9" ht="15" customHeight="1">
+    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="28">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D24" s="17">
         <v>4</v>
@@ -5544,13 +5608,13 @@
         <v>7.1301247771836023</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="15" customHeight="1">
+    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="28">
         <f>B24+1</f>
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D25">
         <v>0.12</v>
@@ -5569,13 +5633,13 @@
         <v>0.64171122994652408</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="15" customHeight="1">
+    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="31">
         <f t="shared" ref="B26:B36" si="0">B25+1</f>
         <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D26">
         <v>0.1</v>
@@ -5594,13 +5658,13 @@
         <v>0.53475935828877008</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D27">
         <v>0.75</v>
@@ -5619,13 +5683,13 @@
       </c>
       <c r="I27" s="42"/>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="31">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D28">
         <v>1.5</v>
@@ -5644,13 +5708,13 @@
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="31">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D29">
         <v>1.5</v>
@@ -5669,13 +5733,13 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="31">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D30">
         <v>1.5</v>
@@ -5694,13 +5758,13 @@
       </c>
       <c r="I30" s="42"/>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="31">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D31">
         <v>1.5</v>
@@ -5719,13 +5783,13 @@
         <v>6.8181818181818183</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="31">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D32">
         <v>0.25</v>
@@ -5744,13 +5808,13 @@
       </c>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="31">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D33">
         <v>0.25</v>
@@ -5769,13 +5833,13 @@
       </c>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="31">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D34">
         <v>0.5</v>
@@ -5794,13 +5858,13 @@
       </c>
       <c r="I34" s="9"/>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="31">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D35">
         <v>1.68</v>
@@ -5819,13 +5883,13 @@
         <v>7.6363636363636358</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="31">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D36">
         <v>0.03</v>
@@ -5844,12 +5908,12 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>277</v>
       </c>

--- a/Каркас 2/Устройства.xlsx
+++ b/Каркас 2/Устройства.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98788357-F2D8-4CE5-82E3-3141A3F1082F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419B896F-A92E-4BFF-920A-C2C9704FAAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="630" windowWidth="28095" windowHeight="14850" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="705" yWindow="630" windowWidth="28095" windowHeight="14850" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Связь" sheetId="4" r:id="rId1"/>
@@ -3047,8 +3047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5288,8 +5288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B3:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5586,26 +5586,26 @@
         <v>315</v>
       </c>
       <c r="D24" s="17">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="E24">
         <v>0.85</v>
       </c>
       <c r="F24" s="33">
         <f>D24/0.22/3/E24</f>
-        <v>7.1301247771836023</v>
+        <v>13.368983957219253</v>
       </c>
       <c r="G24" s="42">
         <f>F24</f>
-        <v>7.1301247771836023</v>
+        <v>13.368983957219253</v>
       </c>
       <c r="H24" s="42">
         <f>F24</f>
-        <v>7.1301247771836023</v>
+        <v>13.368983957219253</v>
       </c>
       <c r="I24" s="42">
         <f>F24</f>
-        <v>7.1301247771836023</v>
+        <v>13.368983957219253</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5919,23 +5919,23 @@
       </c>
       <c r="D38">
         <f>SUM(D24:D37)</f>
-        <v>13.679999999999998</v>
+        <v>17.18</v>
       </c>
       <c r="F38" s="33">
         <f>D38/(0.22*3*0.9)</f>
-        <v>23.030303030303024</v>
+        <v>28.922558922558917</v>
       </c>
       <c r="G38" s="43">
         <f>SUM(G24:G37)</f>
-        <v>20.766488413547236</v>
+        <v>27.00534759358289</v>
       </c>
       <c r="H38" s="43">
         <f>SUM(H24:H37)</f>
-        <v>22.504456327985743</v>
+        <v>28.743315508021396</v>
       </c>
       <c r="I38" s="43">
         <f>SUM(I24:I37)</f>
-        <v>22.897504456327987</v>
+        <v>29.13636363636364</v>
       </c>
     </row>
   </sheetData>
